--- a/檔案欄位說明.xlsx
+++ b/檔案欄位說明.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\shan\power-bi_advanced-courses\Lung-Cancer-Risk-in-25-Countries_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D94F8AA9-EB9E-4280-B38D-7F1630A5DE86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8CA7EB8-CAE6-4601-B757-3C899FCCECB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12810" yWindow="90" windowWidth="8145" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -124,9 +124,6 @@
     <t>是否已被診斷為肺癌（是/否）。</t>
   </si>
   <si>
-    <t>診斷後的癌症期別（第1至第4期，未確診者為 NaN）。</t>
-  </si>
-  <si>
     <t>診斷後的追蹤存活年數（未確診者為 0，確診者範圍為 1–10 年）。</t>
   </si>
   <si>
@@ -143,9 +140,6 @@
   </si>
   <si>
     <t>醫療可近性，分為：良好/差。</t>
-  </si>
-  <si>
-    <t>是否有早期偵測（是/否）。</t>
   </si>
   <si>
     <t>國家層級判定為已開發或開發中國家（是/否）。</t>
@@ -165,6 +159,14 @@
   </si>
   <si>
     <t>欄位說明</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否有早期偵測（是/否）。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>診斷後的癌症期別（第1至第4期，未確診者為 NaN）。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -549,8 +551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -561,10 +563,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -660,7 +662,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -668,7 +670,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -676,7 +678,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -684,7 +686,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -692,7 +694,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -700,7 +702,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -708,7 +710,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -716,7 +718,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -724,7 +726,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -732,7 +734,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -740,7 +742,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -748,7 +750,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
